--- a/数据表/Dialog.xlsx
+++ b/数据表/Dialog.xlsx
@@ -103,7 +103,7 @@
     <t>Chapter1_SmallTalk1</t>
   </si>
   <si>
-    <t>BubbleBox</t>
+    <t>Bubble</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="5"/>
